--- a/biology/Médecine/Roger_Couvelaire/Roger_Couvelaire.xlsx
+++ b/biology/Médecine/Roger_Couvelaire/Roger_Couvelaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Couvelaire (1903-1986), est un chirurgien français, spécialisé en urologie. Il est l'auteur de plusieurs essais.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a exercé dans le service d'urologie de l'hôpital Necker. Il a découvert l’utilisation du greffon iléal, matériau de remplacement de la vessie. Il en a décrit la technique en 1951 et en a publié les premiers résultats en 1957[2]. Le shah d'Iran, Mohammad Reza Pahlavi, fut l'un de ses patients. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a exercé dans le service d'urologie de l'hôpital Necker. Il a découvert l’utilisation du greffon iléal, matériau de remplacement de la vessie. Il en a décrit la technique en 1951 et en a publié les premiers résultats en 1957. Le shah d'Iran, Mohammad Reza Pahlavi, fut l'un de ses patients. 
 Son père, Alexandre Couvelaire était membre de l'Académie nationale de médecine. Son grand-père maternel, le professeur Adolphe Pinard, a été député de la Seine. Son fils, Alexandre Couvelaire est le créateur, en 1964, de la compagnie aérienne Euralair.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Thèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il concevait l'urologue comme un chirurgien à part entière[2]. Il est un opposant à la circoncision, étant pour lui un traitement inadapté au phimosis, à la briéveté du frein, à la pathologie dermatologique du prépuce, dont elle ne ferait qu'aggraver les symptômes (cicatrices rétractiles, cicatrisation interminable, etc.)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il concevait l'urologue comme un chirurgien à part entière. Il est un opposant à la circoncision, étant pour lui un traitement inadapté au phimosis, à la briéveté du frein, à la pathologie dermatologique du prépuce, dont elle ne ferait qu'aggraver les symptômes (cicatrices rétractiles, cicatrisation interminable, etc.).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Urologie, avec Jacob-Michel Cukier, Paris : Éditions Masson, 1978.
 Chirurgien contre le vent, Éditions Pygmalion / Gérard Watelet (1979)
@@ -588,7 +606,7 @@
 50e Congrès français d'urologie. Paris, octobre 1956. Président... Dr R. Raymond Dossot... Procès-verbaux, mémoires et discussions.
 Chirurgie de la vessie
 Essai sur les œdèmes aigus du pancréas et des mésos péritonéaux adjacents. Étude clinique et expérimentale
-Pseudarthrose du col du fémur par interposition du tendon du muscle obturateur externe, avec P. Funck-Brentano[4]
+Pseudarthrose du col du fémur par interposition du tendon du muscle obturateur externe, avec P. Funck-Brentano
 La Cystectomie totale
 L'Adénomectomie prostatique rétropubienne</t>
         </is>
